--- a/ОСД Формы и своды - статусы 2024.xlsx
+++ b/ОСД Формы и своды - статусы 2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Валерьян Васильев\YandexDisk\Общая папка\Страда 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valeryan.vasiliev\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1415,7 +1415,7 @@
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,8 +1843,8 @@
       <c r="K10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>268</v>
+      <c r="L10" s="43" t="s">
+        <v>227</v>
       </c>
       <c r="M10" s="35" t="s">
         <v>223</v>
